--- a/medicine/Pharmacie/Perfluorobutane/Perfluorobutane.xlsx
+++ b/medicine/Pharmacie/Perfluorobutane/Perfluorobutane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  perfluorobutane ou décafluorobutane est un composé chimique de la famille des perfluorocarbures (PFC). C'est un gaz incolore.
 Sa structure est celle du butane (n-butane) où tous les atomes d'hydrogène ont été remplacés par des atomes de fluor.
-Il est utilisé en remplacement du halon 1301 (bromotrifluorométhane) dans les extincteurs[6]ainsi que comme agent pour imagerie par ultrason. Comme composé pharmaceutique, il est connu sous le nom de « sonazoid » ou « perflubutane » .
+Il est utilisé en remplacement du halon 1301 (bromotrifluorométhane) dans les extincteursainsi que comme agent pour imagerie par ultrason. Comme composé pharmaceutique, il est connu sous le nom de « sonazoid » ou « perflubutane » .
 </t>
         </is>
       </c>
